--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -11,7 +11,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mh9sEQ4hq+2fWXXgpLNUb3dJ79dLQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miL6iQs53MD/g5T/9Q2AT8Vvd8cpw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -23,16 +23,16 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Количество вагонов</t>
+    <t>Кол-во вагонов</t>
   </si>
   <si>
     <t>Макс. число вагонов в сходе</t>
   </si>
   <si>
-    <t>Общее количество вагонов</t>
+    <t>Общее кол-во вагонов</t>
   </si>
   <si>
-    <t>Количество сшедших вагонов</t>
+    <t>Кол-во сшедших вагонов</t>
   </si>
   <si>
     <t>Скорость</t>
@@ -64,7 +64,7 @@
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
     <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -74,10 +74,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
     </font>
     <font>
       <color rgb="FF000000"/>
@@ -116,33 +112,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -150,8 +140,8 @@
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -219,14 +209,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="calibri"/>
-        <a:ea typeface="calibri"/>
-        <a:cs typeface="calibri"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="calibri"/>
-        <a:ea typeface="calibri"/>
-        <a:cs typeface="calibri"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -380,19 +370,19 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.38"/>
-    <col customWidth="1" min="2" max="2" width="11.13"/>
-    <col customWidth="1" min="3" max="3" width="15.63"/>
-    <col customWidth="1" min="4" max="4" width="12.13"/>
-    <col customWidth="1" min="5" max="5" width="12.38"/>
-    <col customWidth="1" min="6" max="6" width="11.75"/>
-    <col customWidth="1" min="7" max="7" width="14.63"/>
-    <col customWidth="1" min="8" max="8" width="13.38"/>
-    <col customWidth="1" min="9" max="9" width="13.88"/>
-    <col customWidth="1" min="10" max="10" width="11.75"/>
-    <col customWidth="1" min="11" max="11" width="12.38"/>
-    <col customWidth="1" min="12" max="12" width="11.38"/>
-    <col customWidth="1" min="13" max="26" width="7.88"/>
+    <col customWidth="1" min="1" max="1" width="10.0"/>
+    <col customWidth="1" min="2" max="2" width="9.75"/>
+    <col customWidth="1" min="3" max="3" width="13.63"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="10.88"/>
+    <col customWidth="1" min="6" max="6" width="10.25"/>
+    <col customWidth="1" min="7" max="7" width="12.75"/>
+    <col customWidth="1" min="8" max="8" width="11.75"/>
+    <col customWidth="1" min="9" max="9" width="12.13"/>
+    <col customWidth="1" min="10" max="10" width="10.25"/>
+    <col customWidth="1" min="11" max="11" width="10.88"/>
+    <col customWidth="1" min="12" max="12" width="10.0"/>
+    <col customWidth="1" min="13" max="26" width="11.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -402,7 +392,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -420,7 +410,7 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -434,7 +424,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>41282.0</v>
       </c>
       <c r="B2" s="1">
@@ -469,7 +459,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>41283.0</v>
       </c>
       <c r="B3" s="1">
@@ -504,7 +494,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>41284.0</v>
       </c>
       <c r="B4" s="1">
@@ -534,49 +524,49 @@
       <c r="J4" s="1">
         <v>0.00163934426229508</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>41286.0</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>66.0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>63.0</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>68.0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>21.0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>67.0</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>5699.0</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.918093983311375</v>
       </c>
-      <c r="I5" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="I5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="6">
         <v>0.00232558139534883</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="6">
         <v>0.006</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>41293.0</v>
       </c>
       <c r="B6" s="1">
@@ -614,39 +604,39 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>41299.0</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>70.0</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>59.0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>72.0</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>11.0</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="6">
         <v>45.0</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>5838.0</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.87536231884058</v>
       </c>
-      <c r="I7" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
+      <c r="I7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>41313.0</v>
       </c>
       <c r="B8" s="1">
@@ -676,7 +666,7 @@
       <c r="J8" s="1">
         <v>0.00147710487444609</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="4">
         <v>0.006</v>
       </c>
       <c r="L8" s="1">
@@ -684,7 +674,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>41313.0</v>
       </c>
       <c r="B9" s="1">
@@ -719,7 +709,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>41315.0</v>
       </c>
       <c r="B10" s="1">
@@ -749,7 +739,7 @@
       <c r="J10" s="1">
         <v>0.0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>0.0</v>
       </c>
       <c r="L10" s="1">
@@ -757,7 +747,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>41324.0</v>
       </c>
       <c r="B11" s="1">
@@ -787,7 +777,7 @@
       <c r="J11" s="1">
         <v>0.0</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>-0.0091</v>
       </c>
       <c r="L11" s="1">
@@ -795,7 +785,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>41333.0</v>
       </c>
       <c r="B12" s="1">
@@ -825,7 +815,7 @@
       <c r="J12" s="1">
         <v>0.0</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>-6.0E-4</v>
       </c>
       <c r="L12" s="1">
@@ -833,7 +823,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>41334.0</v>
       </c>
       <c r="B13" s="1">
@@ -871,41 +861,41 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="8">
+      <c r="A14" s="5">
         <v>41335.0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>65.0</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>31.0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>67.0</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>9.0</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9">
+      <c r="F14" s="6"/>
+      <c r="G14" s="7">
         <v>5880.0</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.977703455964326</v>
       </c>
-      <c r="I14" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="I14" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="6">
         <v>0.00142857142857142</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>0.0077</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>41343.0</v>
       </c>
       <c r="B15" s="1">
@@ -935,7 +925,7 @@
       <c r="J15" s="1">
         <v>6.2111801242236E-4</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>8.0E-4</v>
       </c>
       <c r="L15" s="1">
@@ -943,7 +933,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>41344.0</v>
       </c>
       <c r="B16" s="1">
@@ -981,7 +971,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>41349.0</v>
       </c>
       <c r="B17" s="1">
@@ -1011,7 +1001,7 @@
       <c r="J17" s="1">
         <v>0.00126582278481013</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>-0.005</v>
       </c>
       <c r="L17" s="1">
@@ -1019,7 +1009,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>41349.0</v>
       </c>
       <c r="B18" s="1">
@@ -1057,7 +1047,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>41356.0</v>
       </c>
       <c r="B19" s="1">
@@ -1095,43 +1085,43 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="8">
+      <c r="A20" s="5">
         <v>41367.0</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>67.0</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>60.0</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>70.0</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>18.0</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="6">
         <v>56.0</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>5441.0</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>0.843608046722907</v>
       </c>
-      <c r="I20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="I20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="7">
         <v>-1.0E-4</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>41370.0</v>
       </c>
       <c r="B21" s="1">
@@ -1169,7 +1159,7 @@
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>41370.0</v>
       </c>
       <c r="B22" s="1">
@@ -1205,7 +1195,7 @@
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>41379.0</v>
       </c>
       <c r="B23" s="1">
@@ -1243,7 +1233,7 @@
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>41391.0</v>
       </c>
       <c r="B24" s="1">
@@ -1277,7 +1267,7 @@
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>41392.0</v>
       </c>
       <c r="B25" s="1">
@@ -1315,7 +1305,7 @@
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>41437.0</v>
       </c>
       <c r="B26" s="1">
@@ -1353,7 +1343,7 @@
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>41492.0</v>
       </c>
       <c r="B27" s="1">
@@ -1383,13 +1373,13 @@
       <c r="J27" s="1">
         <v>0.0037037037037037</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="8">
         <v>-3.0E-4</v>
       </c>
-      <c r="L27" s="5"/>
+      <c r="L27" s="4"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11">
+      <c r="A28" s="9">
         <v>41561.0</v>
       </c>
       <c r="B28" s="1">
@@ -1424,7 +1414,7 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>41581.0</v>
       </c>
       <c r="B29" s="1">
@@ -1462,39 +1452,39 @@
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>41682.0</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>54.0</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>18.0</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>56.0</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>3.0</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="6">
         <v>35.0</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="6">
         <v>4991.0</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="6">
         <v>1.00617283950617</v>
       </c>
-      <c r="I30" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
+      <c r="I30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>41689.0</v>
       </c>
       <c r="B31" s="1">
@@ -1532,111 +1522,111 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>41689.0</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>65.0</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>55.0</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>68.0</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>12.0</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="6">
         <v>55.0</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="6">
         <v>4991.0</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="6">
         <v>0.77948717948718</v>
       </c>
-      <c r="I32" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
+      <c r="I32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>41700.0</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>70.0</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>43.0</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>72.0</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>18.0</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="6">
         <v>50.0</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="6">
         <v>6118.0</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="6">
         <v>0.933333333333333</v>
       </c>
-      <c r="I33" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="7">
+      <c r="I33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="6">
         <v>-0.002</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>41700.0</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>66.0</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>57.0</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>69.0</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>26.0</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="6">
         <v>70.0</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="6">
         <v>5595.0</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="6">
         <v>0.895256916996048</v>
       </c>
-      <c r="I34" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="7">
+      <c r="I34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="6">
         <v>0.001</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>41707.0</v>
       </c>
       <c r="B35" s="1">
@@ -1666,13 +1656,13 @@
       <c r="J35" s="1">
         <v>0.0014792899408284</v>
       </c>
-      <c r="K35" s="10"/>
+      <c r="K35" s="8"/>
       <c r="L35" s="1">
         <v>3.0</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>41721.0</v>
       </c>
       <c r="B36" s="1">
@@ -1707,43 +1697,43 @@
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8">
+      <c r="A37" s="5">
         <v>41725.0</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>69.0</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>6.0</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>72.0</v>
       </c>
-      <c r="E37" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="7">
+      <c r="E37" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="6">
         <v>59.0</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="7">
         <v>6223.0</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>0.973745011552195</v>
       </c>
-      <c r="I37" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="I37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="7">
         <v>1.0E-4</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>41755.0</v>
       </c>
       <c r="B38" s="1">
@@ -1773,10 +1763,10 @@
       <c r="K38" s="1">
         <v>-0.0104</v>
       </c>
-      <c r="L38" s="5"/>
+      <c r="L38" s="4"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>41897.0</v>
       </c>
       <c r="B39" s="1">
@@ -1806,13 +1796,13 @@
       <c r="J39" s="1">
         <v>0.00168634064080944</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="10">
         <v>0.0084</v>
       </c>
-      <c r="L39" s="5"/>
+      <c r="L39" s="4"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="11">
+      <c r="A40" s="9">
         <v>41999.0</v>
       </c>
       <c r="B40" s="1">
@@ -1842,12 +1832,12 @@
       <c r="J40" s="1">
         <v>0.0</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="4">
         <v>-0.0079</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>42113.0</v>
       </c>
       <c r="B41" s="1">
@@ -1883,7 +1873,7 @@
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>42126.0</v>
       </c>
       <c r="B42" s="1">
@@ -1921,19 +1911,19 @@
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42345.0</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="4"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="5"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="1">
         <v>1.0</v>
       </c>
       <c r="F43" s="1">
         <v>49.0</v>
       </c>
-      <c r="G43" s="5"/>
+      <c r="G43" s="4"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
         <v>0.0</v>
@@ -1949,7 +1939,7 @@
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="11">
+      <c r="A44" s="9">
         <v>42361.0</v>
       </c>
       <c r="B44" s="1">
@@ -1964,7 +1954,7 @@
       <c r="E44" s="1">
         <v>1.0</v>
       </c>
-      <c r="F44" s="5"/>
+      <c r="F44" s="4"/>
       <c r="G44" s="1">
         <v>4091.0</v>
       </c>
@@ -1980,16 +1970,16 @@
       <c r="K44" s="1">
         <v>2.0E-4</v>
       </c>
-      <c r="L44" s="5"/>
+      <c r="L44" s="4"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>42387.0</v>
       </c>
       <c r="B45" s="1">
         <v>66.0</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="4">
         <v>67.0</v>
       </c>
       <c r="D45" s="1">
@@ -2021,7 +2011,7 @@
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>42406.0</v>
       </c>
       <c r="B46" s="1">
@@ -2056,43 +2046,43 @@
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>42411.0</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <v>62.0</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>44.0</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>64.0</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>22.0</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="6">
         <v>66.0</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="6">
         <v>5785.0</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="6">
         <v>1.01893408134642</v>
       </c>
-      <c r="I47" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="7">
+      <c r="I47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="6">
         <v>-0.0019</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>42434.0</v>
       </c>
       <c r="B48" s="1">
@@ -2130,7 +2120,7 @@
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>42437.0</v>
       </c>
       <c r="B49" s="1">
@@ -2168,7 +2158,7 @@
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>42459.0</v>
       </c>
       <c r="B50" s="1">
@@ -2201,17 +2191,17 @@
       <c r="K50" s="1">
         <v>-0.0078</v>
       </c>
-      <c r="L50" s="5"/>
+      <c r="L50" s="4"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>42554.0</v>
       </c>
       <c r="C51" s="1"/>
       <c r="E51" s="1">
         <v>1.0</v>
       </c>
-      <c r="F51" s="5"/>
+      <c r="F51" s="4"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
         <v>0.0</v>
@@ -2222,10 +2212,10 @@
       <c r="K51" s="1">
         <v>0.006</v>
       </c>
-      <c r="L51" s="5"/>
+      <c r="L51" s="4"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>41277.0</v>
       </c>
       <c r="B52" s="1">
@@ -2260,7 +2250,7 @@
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>41313.0</v>
       </c>
       <c r="B53" s="1">
@@ -2293,7 +2283,7 @@
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>41356.0</v>
       </c>
       <c r="B54" s="1">
@@ -2323,7 +2313,7 @@
       <c r="J54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>41706.0</v>
       </c>
       <c r="B55" s="1">
@@ -2356,7 +2346,7 @@
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>41846.0</v>
       </c>
       <c r="B56" s="1">
@@ -2386,7 +2376,7 @@
       <c r="J56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>42405.0</v>
       </c>
       <c r="B57" s="1">
@@ -3381,7 +3371,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.88"/>
+    <col customWidth="1" min="1" max="6" width="6.88"/>
+    <col customWidth="1" min="7" max="26" width="11.0"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4382,7 +4373,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.88"/>
+    <col customWidth="1" min="1" max="6" width="6.88"/>
+    <col customWidth="1" min="7" max="26" width="11.0"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/src/data/data.xlsx
+++ b/src/data/data.xlsx
@@ -11,28 +11,28 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7miL6iQs53MD/g5T/9Q2AT8Vvd8cpw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mh9sEQ4hq+2fWXXgpLNUb3dJ79dLQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Дата</t>
   </si>
   <si>
-    <t>Кол-во вагонов</t>
+    <t>Количество вагонов</t>
   </si>
   <si>
     <t>Макс. число вагонов в сходе</t>
   </si>
   <si>
-    <t>Общее кол-во вагонов</t>
+    <t>Общее количество вагонов</t>
   </si>
   <si>
-    <t>Кол-во сшедших вагонов</t>
+    <t>Количество сшедших вагонов</t>
   </si>
   <si>
     <t>Скорость</t>
@@ -55,6 +55,18 @@
   <si>
     <t>Режим движения</t>
   </si>
+  <si>
+    <t>n_feature_1</t>
+  </si>
+  <si>
+    <t>n_feature_2</t>
+  </si>
+  <si>
+    <t>n_feature_3</t>
+  </si>
+  <si>
+    <t>intercept</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +76,7 @@
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
     <numFmt numFmtId="165" formatCode="d.m.yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -76,16 +88,35 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -112,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -120,28 +151,38 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
@@ -209,14 +250,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="calibri"/>
+        <a:ea typeface="calibri"/>
+        <a:cs typeface="calibri"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="calibri"/>
+        <a:ea typeface="calibri"/>
+        <a:cs typeface="calibri"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,19 +411,22 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="9.75"/>
-    <col customWidth="1" min="3" max="3" width="13.63"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="10.88"/>
-    <col customWidth="1" min="6" max="6" width="10.25"/>
-    <col customWidth="1" min="7" max="7" width="12.75"/>
-    <col customWidth="1" min="8" max="8" width="11.75"/>
-    <col customWidth="1" min="9" max="9" width="12.13"/>
-    <col customWidth="1" min="10" max="10" width="10.25"/>
-    <col customWidth="1" min="11" max="11" width="10.88"/>
-    <col customWidth="1" min="12" max="12" width="10.0"/>
-    <col customWidth="1" min="13" max="26" width="11.0"/>
+    <col customWidth="1" min="1" max="1" width="11.38"/>
+    <col customWidth="1" min="2" max="2" width="11.13"/>
+    <col customWidth="1" min="3" max="3" width="15.63"/>
+    <col customWidth="1" min="4" max="4" width="12.13"/>
+    <col customWidth="1" min="5" max="5" width="12.38"/>
+    <col customWidth="1" min="6" max="6" width="11.75"/>
+    <col customWidth="1" min="7" max="7" width="14.63"/>
+    <col customWidth="1" min="8" max="8" width="13.38"/>
+    <col customWidth="1" min="9" max="9" width="13.88"/>
+    <col customWidth="1" min="10" max="10" width="11.75"/>
+    <col customWidth="1" min="11" max="11" width="12.38"/>
+    <col customWidth="1" min="12" max="12" width="11.38"/>
+    <col customWidth="1" min="13" max="13" width="10.88"/>
+    <col customWidth="1" min="14" max="14" width="11.5"/>
+    <col customWidth="1" min="15" max="15" width="11.63"/>
+    <col customWidth="1" min="16" max="26" width="7.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -422,9 +466,21 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>41282.0</v>
       </c>
       <c r="B2" s="1">
@@ -457,9 +513,24 @@
       <c r="K2" s="1">
         <v>7.0E-4</v>
       </c>
+      <c r="M2" s="6">
+        <f t="shared" ref="M2:M3" si="1">K2*C2</f>
+        <v>0.0133</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N35" si="2">1 - C2/D2</f>
+        <v>0.6724137931</v>
+      </c>
+      <c r="O2" s="6">
+        <f t="shared" ref="O2:O13" si="3">F2*H2</f>
+        <v>31.18478261</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>41283.0</v>
       </c>
       <c r="B3" s="1">
@@ -492,9 +563,24 @@
       <c r="K3" s="1">
         <v>9.0E-4</v>
       </c>
+      <c r="M3" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0225</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5967741935</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" si="3"/>
+        <v>46.99130435</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>41284.0</v>
       </c>
       <c r="B4" s="1">
@@ -524,49 +610,75 @@
       <c r="J4" s="1">
         <v>0.00163934426229508</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="7"/>
       <c r="L4" s="1">
         <v>3.0</v>
       </c>
+      <c r="N4" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="3"/>
+        <v>11.01449275</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="8">
         <v>41286.0</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="9">
         <v>66.0</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="9">
         <v>63.0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>68.0</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="9">
         <v>21.0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>67.0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="9">
         <v>5699.0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="9">
         <v>0.918093983311375</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="I5" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="9">
         <v>0.00232558139534883</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="9">
         <v>0.006</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="6">
+        <f t="shared" ref="M5:M6" si="4">K5*C5</f>
+        <v>0.378</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.07352941176</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="3"/>
+        <v>61.51229688</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="5">
         <v>41293.0</v>
       </c>
       <c r="B6" s="1">
@@ -602,41 +714,67 @@
       <c r="L6" s="1">
         <v>2.0</v>
       </c>
+      <c r="M6" s="6">
+        <f t="shared" si="4"/>
+        <v>0.0204</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5072463768</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="3"/>
+        <v>64.37313433</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5">
+      <c r="A7" s="8">
         <v>41299.0</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>70.0</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="9">
         <v>59.0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>72.0</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="9">
         <v>11.0</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>45.0</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="9">
         <v>5838.0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="9">
         <v>0.87536231884058</v>
       </c>
-      <c r="I7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="I7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="N7" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1805555556</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="3"/>
+        <v>39.39130435</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>41313.0</v>
       </c>
       <c r="B8" s="1">
@@ -666,15 +804,30 @@
       <c r="J8" s="1">
         <v>0.00147710487444609</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="7">
         <v>0.006</v>
       </c>
       <c r="L8" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="6">
+        <f>K8*C8</f>
+        <v>0.396</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="2"/>
+        <v>0.09589041096</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="3"/>
+        <v>15.25939929</v>
+      </c>
+      <c r="P8" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>41313.0</v>
       </c>
       <c r="B9" s="1">
@@ -707,9 +860,20 @@
       <c r="L9" s="1">
         <v>2.0</v>
       </c>
+      <c r="N9" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3606557377</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="3"/>
+        <v>31.988006</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>41315.0</v>
       </c>
       <c r="B10" s="1">
@@ -739,15 +903,30 @@
       <c r="J10" s="1">
         <v>0.0</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="7">
         <v>0.0</v>
       </c>
       <c r="L10" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M10" s="6">
+        <f t="shared" ref="M10:M23" si="5">K10*C10</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2253521127</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="3"/>
+        <v>52.68830078</v>
+      </c>
+      <c r="P10" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>41324.0</v>
       </c>
       <c r="B11" s="1">
@@ -777,15 +956,30 @@
       <c r="J11" s="1">
         <v>0.0</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="7">
         <v>-0.0091</v>
       </c>
       <c r="L11" s="1">
         <v>3.0</v>
       </c>
+      <c r="M11" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.546</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1428571429</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="3"/>
+        <v>50.06587615</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="5">
         <v>41333.0</v>
       </c>
       <c r="B12" s="1">
@@ -815,15 +1009,30 @@
       <c r="J12" s="1">
         <v>0.0</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="7">
         <v>-6.0E-4</v>
       </c>
       <c r="L12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M12" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.015</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5192307692</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="3"/>
+        <v>30.85652174</v>
+      </c>
+      <c r="P12" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>41334.0</v>
       </c>
       <c r="B13" s="1">
@@ -859,43 +1068,69 @@
       <c r="L13" s="1">
         <v>1.0</v>
       </c>
+      <c r="M13" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.036</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="2"/>
+        <v>0.06493506494</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="3"/>
+        <v>74.87227053</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="5">
+      <c r="A14" s="10">
         <v>41335.0</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="9">
         <v>65.0</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="9">
         <v>31.0</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="9">
         <v>67.0</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="9">
         <v>9.0</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7">
+      <c r="F14" s="9"/>
+      <c r="G14" s="11">
         <v>5880.0</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="9">
         <v>0.977703455964326</v>
       </c>
-      <c r="I14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="I14" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="9">
         <v>0.00142857142857142</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="11">
         <v>0.0077</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="6">
+        <f t="shared" si="5"/>
+        <v>0.2387</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5373134328</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>41343.0</v>
       </c>
       <c r="B15" s="1">
@@ -925,15 +1160,30 @@
       <c r="J15" s="1">
         <v>6.2111801242236E-4</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="7">
         <v>8.0E-4</v>
       </c>
       <c r="L15" s="1">
         <v>2.0</v>
       </c>
+      <c r="M15" s="6">
+        <f t="shared" si="5"/>
+        <v>0.0032</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9444444444</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" ref="O15:O42" si="6">F15*H15</f>
+        <v>68.33850932</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>41344.0</v>
       </c>
       <c r="B16" s="1">
@@ -969,9 +1219,24 @@
       <c r="L16" s="1">
         <v>2.0</v>
       </c>
+      <c r="M16" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.0258</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9565217391</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="6"/>
+        <v>17.03655635</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="5">
         <v>41349.0</v>
       </c>
       <c r="B17" s="1">
@@ -1001,15 +1266,30 @@
       <c r="J17" s="1">
         <v>0.00126582278481013</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="7">
         <v>-0.005</v>
       </c>
       <c r="L17" s="1">
         <v>2.0</v>
       </c>
+      <c r="M17" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.13</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6829268293</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="6"/>
+        <v>16.48369565</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>41349.0</v>
       </c>
       <c r="B18" s="1">
@@ -1045,9 +1325,24 @@
       <c r="L18" s="1">
         <v>1.0</v>
       </c>
+      <c r="M18" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.00006</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4230769231</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="6"/>
+        <v>11.3115942</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="5">
         <v>41356.0</v>
       </c>
       <c r="B19" s="1">
@@ -1083,45 +1378,75 @@
       <c r="L19" s="1">
         <v>1.0</v>
       </c>
+      <c r="M19" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.0037</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="2"/>
+        <v>0.5066666667</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="6"/>
+        <v>81.56164384</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="5">
+      <c r="A20" s="10">
         <v>41367.0</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="9">
         <v>67.0</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="9">
         <v>60.0</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="9">
         <v>70.0</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="9">
         <v>18.0</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="9">
         <v>56.0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="11">
         <v>5441.0</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="9">
         <v>0.843608046722907</v>
       </c>
-      <c r="I20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="I20" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="11">
         <v>-1.0E-4</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.006</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1428571429</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="6"/>
+        <v>47.24205062</v>
+      </c>
+      <c r="P20" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="5">
         <v>41370.0</v>
       </c>
       <c r="B21" s="1">
@@ -1157,9 +1482,24 @@
       <c r="L21" s="1">
         <v>2.0</v>
       </c>
+      <c r="M21" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.4108</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2777777778</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="6"/>
+        <v>74.6910313</v>
+      </c>
+      <c r="P21" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="5">
         <v>41370.0</v>
       </c>
       <c r="B22" s="1">
@@ -1193,9 +1533,24 @@
       <c r="L22" s="1">
         <v>1.0</v>
       </c>
+      <c r="M22" s="6">
+        <f t="shared" si="5"/>
+        <v>0.2013</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1973684211</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="6"/>
+        <v>44.38888889</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="5">
         <v>41379.0</v>
       </c>
       <c r="B23" s="1">
@@ -1231,9 +1586,24 @@
       <c r="L23" s="1">
         <v>2.0</v>
       </c>
+      <c r="M23" s="6">
+        <f t="shared" si="5"/>
+        <v>-0.0637</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7234042553</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="6"/>
+        <v>22.76167472</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="5">
         <v>41391.0</v>
       </c>
       <c r="B24" s="1">
@@ -1265,9 +1635,20 @@
       <c r="L24" s="1">
         <v>2.0</v>
       </c>
+      <c r="N24" s="6">
+        <f t="shared" si="2"/>
+        <v>0.234375</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="6"/>
+        <v>17.80037401</v>
+      </c>
+      <c r="P24" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="5">
         <v>41392.0</v>
       </c>
       <c r="B25" s="1">
@@ -1303,9 +1684,24 @@
       <c r="L25" s="1">
         <v>1.0</v>
       </c>
+      <c r="M25" s="6">
+        <f t="shared" ref="M25:M29" si="7">K25*C25</f>
+        <v>-0.2773</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1571428571</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="6"/>
+        <v>51.45652174</v>
+      </c>
+      <c r="P25" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="5">
         <v>41437.0</v>
       </c>
       <c r="B26" s="1">
@@ -1341,9 +1737,24 @@
       <c r="L26" s="1">
         <v>1.0</v>
       </c>
+      <c r="M26" s="6">
+        <f t="shared" si="7"/>
+        <v>0.3159</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.3157894737</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="6"/>
+        <v>61.7715415</v>
+      </c>
+      <c r="P26" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="5">
         <v>41492.0</v>
       </c>
       <c r="B27" s="1">
@@ -1373,13 +1784,28 @@
       <c r="J27" s="1">
         <v>0.0037037037037037</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="12">
         <v>-3.0E-4</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="6">
+        <f t="shared" si="7"/>
+        <v>-0.0063</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="2"/>
+        <v>0.7083333333</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="6"/>
+        <v>37.18925831</v>
+      </c>
+      <c r="P27" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="9">
+      <c r="A28" s="13">
         <v>41561.0</v>
       </c>
       <c r="B28" s="1">
@@ -1412,9 +1838,24 @@
       <c r="K28" s="1">
         <v>0.0</v>
       </c>
+      <c r="M28" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="2"/>
+        <v>0.9166666667</v>
+      </c>
+      <c r="O28" s="6">
+        <f t="shared" si="6"/>
+        <v>31.48778468</v>
+      </c>
+      <c r="P28" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="5">
         <v>41581.0</v>
       </c>
       <c r="B29" s="1">
@@ -1450,41 +1891,67 @@
       <c r="L29" s="1">
         <v>1.0</v>
       </c>
+      <c r="M29" s="6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <f t="shared" si="2"/>
+        <v>0.328125</v>
+      </c>
+      <c r="O29" s="6">
+        <f t="shared" si="6"/>
+        <v>45.77863488</v>
+      </c>
+      <c r="P29" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5">
+      <c r="A30" s="8">
         <v>41682.0</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="9">
         <v>54.0</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="9">
         <v>18.0</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="9">
         <v>56.0</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="9">
         <v>3.0</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="9">
         <v>35.0</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="9">
         <v>4991.0</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="9">
         <v>1.00617283950617</v>
       </c>
-      <c r="I30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+      <c r="I30" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="N30" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6785714286</v>
+      </c>
+      <c r="O30" s="6">
+        <f t="shared" si="6"/>
+        <v>35.21604938</v>
+      </c>
+      <c r="P30" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="3">
+      <c r="A31" s="5">
         <v>41689.0</v>
       </c>
       <c r="B31" s="1">
@@ -1520,113 +1987,169 @@
       <c r="L31" s="1">
         <v>1.0</v>
       </c>
+      <c r="M31" s="6">
+        <f>K31*C31</f>
+        <v>0.1598</v>
+      </c>
+      <c r="N31" s="6">
+        <f t="shared" si="2"/>
+        <v>0.6851851852</v>
+      </c>
+      <c r="O31" s="6">
+        <f t="shared" si="6"/>
+        <v>45.52675585</v>
+      </c>
+      <c r="P31" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5">
+      <c r="A32" s="8">
         <v>41689.0</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="9">
         <v>65.0</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="9">
         <v>55.0</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="9">
         <v>68.0</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="9">
         <v>12.0</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="9">
         <v>55.0</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="9">
         <v>4991.0</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="9">
         <v>0.77948717948718</v>
       </c>
-      <c r="I32" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+      <c r="I32" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="N32" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1911764706</v>
+      </c>
+      <c r="O32" s="6">
+        <f t="shared" si="6"/>
+        <v>42.87179487</v>
+      </c>
+      <c r="P32" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5">
+      <c r="A33" s="8">
         <v>41700.0</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="9">
         <v>70.0</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="9">
         <v>43.0</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="9">
         <v>72.0</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="9">
         <v>18.0</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="9">
         <v>50.0</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="9">
         <v>6118.0</v>
       </c>
-      <c r="H33" s="6">
+      <c r="H33" s="9">
         <v>0.933333333333333</v>
       </c>
-      <c r="I33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K33" s="6">
+      <c r="I33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K33" s="9">
         <v>-0.002</v>
       </c>
-      <c r="L33" s="6"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="6">
+        <f t="shared" ref="M33:M34" si="8">K33*C33</f>
+        <v>-0.086</v>
+      </c>
+      <c r="N33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.4027777778</v>
+      </c>
+      <c r="O33" s="6">
+        <f t="shared" si="6"/>
+        <v>46.66666667</v>
+      </c>
+      <c r="P33" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5">
+      <c r="A34" s="8">
         <v>41700.0</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="9">
         <v>66.0</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="9">
         <v>57.0</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="9">
         <v>69.0</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="9">
         <v>26.0</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="9">
         <v>70.0</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="9">
         <v>5595.0</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="9">
         <v>0.895256916996048</v>
       </c>
-      <c r="I34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K34" s="6">
+      <c r="I34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K34" s="9">
         <v>0.001</v>
       </c>
-      <c r="L34" s="6"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="6">
+        <f t="shared" si="8"/>
+        <v>0.057</v>
+      </c>
+      <c r="N34" s="6">
+        <f t="shared" si="2"/>
+        <v>0.1739130435</v>
+      </c>
+      <c r="O34" s="6">
+        <f t="shared" si="6"/>
+        <v>62.66798419</v>
+      </c>
+      <c r="P34" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="5">
         <v>41707.0</v>
       </c>
       <c r="B35" s="1">
@@ -1656,13 +2179,24 @@
       <c r="J35" s="1">
         <v>0.0014792899408284</v>
       </c>
-      <c r="K35" s="8"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="1">
         <v>3.0</v>
       </c>
+      <c r="N35" s="6">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="O35" s="6">
+        <f t="shared" si="6"/>
+        <v>37.61381074</v>
+      </c>
+      <c r="P35" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
+      <c r="A36" s="5">
         <v>41721.0</v>
       </c>
       <c r="B36" s="1">
@@ -1695,45 +2229,67 @@
       <c r="L36" s="1">
         <v>1.0</v>
       </c>
+      <c r="O36" s="6">
+        <f t="shared" si="6"/>
+        <v>2.875362319</v>
+      </c>
+      <c r="P36" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5">
+      <c r="A37" s="10">
         <v>41725.0</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="9">
         <v>69.0</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="9">
         <v>6.0</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="9">
         <v>72.0</v>
       </c>
-      <c r="E37" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="E37" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="F37" s="9">
         <v>59.0</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="11">
         <v>6223.0</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="9">
         <v>0.973745011552195</v>
       </c>
-      <c r="I37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K37" s="7">
+      <c r="I37" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K37" s="11">
         <v>1.0E-4</v>
       </c>
-      <c r="L37" s="6"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="6">
+        <f>K37*C37</f>
+        <v>0.0006</v>
+      </c>
+      <c r="N37" s="6">
+        <f>1 - C37/D37</f>
+        <v>0.9166666667</v>
+      </c>
+      <c r="O37" s="6">
+        <f t="shared" si="6"/>
+        <v>57.45095568</v>
+      </c>
+      <c r="P37" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3">
+      <c r="A38" s="5">
         <v>41755.0</v>
       </c>
       <c r="B38" s="1">
@@ -1763,10 +2319,17 @@
       <c r="K38" s="1">
         <v>-0.0104</v>
       </c>
-      <c r="L38" s="4"/>
+      <c r="L38" s="7"/>
+      <c r="O38" s="6">
+        <f t="shared" si="6"/>
+        <v>62.387068</v>
+      </c>
+      <c r="P38" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3">
+      <c r="A39" s="5">
         <v>41897.0</v>
       </c>
       <c r="B39" s="1">
@@ -1796,13 +2359,28 @@
       <c r="J39" s="1">
         <v>0.00168634064080944</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="14">
         <v>0.0084</v>
       </c>
-      <c r="L39" s="4"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="6">
+        <f t="shared" ref="M39:M42" si="9">K39*C39</f>
+        <v>0.5292</v>
+      </c>
+      <c r="N39" s="6">
+        <f t="shared" ref="N39:N42" si="10">1 - C39/D39</f>
+        <v>0.37</v>
+      </c>
+      <c r="O39" s="6">
+        <f t="shared" si="6"/>
+        <v>33.86654589</v>
+      </c>
+      <c r="P39" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="9">
+      <c r="A40" s="13">
         <v>41999.0</v>
       </c>
       <c r="B40" s="1">
@@ -1832,12 +2410,27 @@
       <c r="J40" s="1">
         <v>0.0</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="7">
         <v>-0.0079</v>
+      </c>
+      <c r="M40" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.237</v>
+      </c>
+      <c r="N40" s="6">
+        <f t="shared" si="10"/>
+        <v>0.5652173913</v>
+      </c>
+      <c r="O40" s="6">
+        <f t="shared" si="6"/>
+        <v>48.11594203</v>
+      </c>
+      <c r="P40" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3">
+      <c r="A41" s="5">
         <v>42113.0</v>
       </c>
       <c r="B41" s="1">
@@ -1871,9 +2464,24 @@
       <c r="L41" s="1">
         <v>2.0</v>
       </c>
+      <c r="M41" s="6">
+        <f t="shared" si="9"/>
+        <v>-0.4235</v>
+      </c>
+      <c r="N41" s="6">
+        <f t="shared" si="10"/>
+        <v>0.2142857143</v>
+      </c>
+      <c r="O41" s="6">
+        <f t="shared" si="6"/>
+        <v>31.59679862</v>
+      </c>
+      <c r="P41" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="3">
+      <c r="A42" s="5">
         <v>42126.0</v>
       </c>
       <c r="B42" s="1">
@@ -1909,21 +2517,36 @@
       <c r="L42" s="1">
         <v>1.0</v>
       </c>
+      <c r="M42" s="6">
+        <f t="shared" si="9"/>
+        <v>0.654</v>
+      </c>
+      <c r="N42" s="6">
+        <f t="shared" si="10"/>
+        <v>0.1428571429</v>
+      </c>
+      <c r="O42" s="6">
+        <f t="shared" si="6"/>
+        <v>48.32125604</v>
+      </c>
+      <c r="P42" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="3">
+      <c r="A43" s="5">
         <v>42345.0</v>
       </c>
-      <c r="B43" s="4"/>
+      <c r="B43" s="7"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="4"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="1">
         <v>1.0</v>
       </c>
       <c r="F43" s="1">
         <v>49.0</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="7"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1">
         <v>0.0</v>
@@ -1937,9 +2560,12 @@
       <c r="L43" s="1">
         <v>1.0</v>
       </c>
+      <c r="P43" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="9">
+      <c r="A44" s="13">
         <v>42361.0</v>
       </c>
       <c r="B44" s="1">
@@ -1954,7 +2580,7 @@
       <c r="E44" s="1">
         <v>1.0</v>
       </c>
-      <c r="F44" s="4"/>
+      <c r="F44" s="7"/>
       <c r="G44" s="1">
         <v>4091.0</v>
       </c>
@@ -1970,16 +2596,27 @@
       <c r="K44" s="1">
         <v>2.0E-4</v>
       </c>
-      <c r="L44" s="4"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="6">
+        <f t="shared" ref="M44:M50" si="11">K44*C44</f>
+        <v>0.0018</v>
+      </c>
+      <c r="N44" s="6">
+        <f t="shared" ref="N44:N50" si="12">1 - C44/D44</f>
+        <v>0.8656716418</v>
+      </c>
+      <c r="P44" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="3">
+      <c r="A45" s="5">
         <v>42387.0</v>
       </c>
       <c r="B45" s="1">
         <v>66.0</v>
       </c>
-      <c r="C45" s="4">
+      <c r="C45" s="7">
         <v>67.0</v>
       </c>
       <c r="D45" s="1">
@@ -2009,9 +2646,24 @@
       <c r="L45" s="1">
         <v>2.0</v>
       </c>
+      <c r="M45" s="6">
+        <f t="shared" si="11"/>
+        <v>0.4556</v>
+      </c>
+      <c r="N45" s="6">
+        <f t="shared" si="12"/>
+        <v>0.01470588235</v>
+      </c>
+      <c r="O45" s="6">
+        <f t="shared" ref="O45:O50" si="13">F45*H45</f>
+        <v>20.66183575</v>
+      </c>
+      <c r="P45" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="3">
+      <c r="A46" s="5">
         <v>42406.0</v>
       </c>
       <c r="B46" s="1">
@@ -2044,45 +2696,75 @@
       <c r="K46" s="1">
         <v>7.0E-4</v>
       </c>
+      <c r="M46" s="6">
+        <f t="shared" si="11"/>
+        <v>0.0091</v>
+      </c>
+      <c r="N46" s="6">
+        <f t="shared" si="12"/>
+        <v>0.8142857143</v>
+      </c>
+      <c r="O46" s="6">
+        <f t="shared" si="13"/>
+        <v>61.07246377</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="5">
+      <c r="A47" s="8">
         <v>42411.0</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="9">
         <v>62.0</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="9">
         <v>44.0</v>
       </c>
-      <c r="D47" s="6">
+      <c r="D47" s="9">
         <v>64.0</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="9">
         <v>22.0</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="9">
         <v>66.0</v>
       </c>
-      <c r="G47" s="6">
+      <c r="G47" s="9">
         <v>5785.0</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="9">
         <v>1.01893408134642</v>
       </c>
-      <c r="I47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="K47" s="6">
+      <c r="I47" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="J47" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="K47" s="9">
         <v>-0.0019</v>
       </c>
-      <c r="L47" s="6"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.0836</v>
+      </c>
+      <c r="N47" s="6">
+        <f t="shared" si="12"/>
+        <v>0.3125</v>
+      </c>
+      <c r="O47" s="6">
+        <f t="shared" si="13"/>
+        <v>67.24964937</v>
+      </c>
+      <c r="P47" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="3">
+      <c r="A48" s="5">
         <v>42434.0</v>
       </c>
       <c r="B48" s="1">
@@ -2118,9 +2800,24 @@
       <c r="L48" s="1">
         <v>3.0</v>
       </c>
+      <c r="M48" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.3354</v>
+      </c>
+      <c r="N48" s="6">
+        <f t="shared" si="12"/>
+        <v>0.328125</v>
+      </c>
+      <c r="O48" s="6">
+        <f t="shared" si="13"/>
+        <v>56.41767641</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="3">
+      <c r="A49" s="5">
         <v>42437.0</v>
       </c>
       <c r="B49" s="1">
@@ -2156,9 +2853,24 @@
       <c r="L49" s="1">
         <v>1.0</v>
       </c>
+      <c r="M49" s="6">
+        <f t="shared" si="11"/>
+        <v>0.07</v>
+      </c>
+      <c r="N49" s="6">
+        <f t="shared" si="12"/>
+        <v>0.2857142857</v>
+      </c>
+      <c r="O49" s="6">
+        <f t="shared" si="13"/>
+        <v>28.137573</v>
+      </c>
+      <c r="P49" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="3">
+      <c r="A50" s="5">
         <v>42459.0</v>
       </c>
       <c r="B50" s="1">
@@ -2191,17 +2903,32 @@
       <c r="K50" s="1">
         <v>-0.0078</v>
       </c>
-      <c r="L50" s="4"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="6">
+        <f t="shared" si="11"/>
+        <v>-0.4368</v>
+      </c>
+      <c r="N50" s="6">
+        <f t="shared" si="12"/>
+        <v>0.1641791045</v>
+      </c>
+      <c r="O50" s="6">
+        <f t="shared" si="13"/>
+        <v>75.32608696</v>
+      </c>
+      <c r="P50" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="3">
+      <c r="A51" s="5">
         <v>42554.0</v>
       </c>
       <c r="C51" s="1"/>
       <c r="E51" s="1">
         <v>1.0</v>
       </c>
-      <c r="F51" s="4"/>
+      <c r="F51" s="7"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1">
         <v>0.0</v>
@@ -2212,10 +2939,13 @@
       <c r="K51" s="1">
         <v>0.006</v>
       </c>
-      <c r="L51" s="4"/>
+      <c r="L51" s="7"/>
+      <c r="P51" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="3">
+      <c r="A52" s="5">
         <v>41277.0</v>
       </c>
       <c r="B52" s="1">
@@ -2248,9 +2978,20 @@
       <c r="L52" s="1">
         <v>1.0</v>
       </c>
+      <c r="N52" s="6">
+        <f t="shared" ref="N52:N54" si="14">1 - C52/D52</f>
+        <v>0.9555555556</v>
+      </c>
+      <c r="O52" s="6">
+        <f t="shared" ref="O52:O57" si="15">F52*H52</f>
+        <v>29.98988878</v>
+      </c>
+      <c r="P52" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="3">
+      <c r="A53" s="5">
         <v>41313.0</v>
       </c>
       <c r="B53" s="1">
@@ -2281,9 +3022,20 @@
       <c r="L53" s="1">
         <v>1.0</v>
       </c>
+      <c r="N53" s="6">
+        <f t="shared" si="14"/>
+        <v>0.03278688525</v>
+      </c>
+      <c r="O53" s="6">
+        <f t="shared" si="15"/>
+        <v>12.85310734</v>
+      </c>
+      <c r="P53" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="3">
+      <c r="A54" s="5">
         <v>41356.0</v>
       </c>
       <c r="B54" s="1">
@@ -2311,9 +3063,20 @@
         <v>1.0</v>
       </c>
       <c r="J54" s="1"/>
+      <c r="N54" s="6">
+        <f t="shared" si="14"/>
+        <v>0.8387096774</v>
+      </c>
+      <c r="O54" s="6">
+        <f t="shared" si="15"/>
+        <v>3.442028986</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="3">
+      <c r="A55" s="5">
         <v>41706.0</v>
       </c>
       <c r="B55" s="1">
@@ -2344,9 +3107,16 @@
       <c r="L55" s="1">
         <v>3.0</v>
       </c>
+      <c r="O55" s="6">
+        <f t="shared" si="15"/>
+        <v>19.58717611</v>
+      </c>
+      <c r="P55" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="3">
+      <c r="A56" s="5">
         <v>41846.0</v>
       </c>
       <c r="B56" s="1">
@@ -2374,9 +3144,20 @@
         <v>1.0</v>
       </c>
       <c r="J56" s="1"/>
+      <c r="N56" s="6">
+        <f t="shared" ref="N56:N57" si="16">1 - C56/D56</f>
+        <v>0.2096774194</v>
+      </c>
+      <c r="O56" s="6">
+        <f t="shared" si="15"/>
+        <v>8.517391304</v>
+      </c>
+      <c r="P56" s="3">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="3">
+      <c r="A57" s="5">
         <v>42405.0</v>
       </c>
       <c r="B57" s="1">
@@ -2408,6 +3189,17 @@
       </c>
       <c r="L57" s="1">
         <v>3.0</v>
+      </c>
+      <c r="N57" s="6">
+        <f t="shared" si="16"/>
+        <v>0.9538461538</v>
+      </c>
+      <c r="O57" s="6">
+        <f t="shared" si="15"/>
+        <v>64.61337073</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1"/>
@@ -3371,8 +4163,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="6.88"/>
-    <col customWidth="1" min="7" max="26" width="11.0"/>
+    <col customWidth="1" min="1" max="26" width="7.88"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -4373,8 +5164,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="6.88"/>
-    <col customWidth="1" min="7" max="26" width="11.0"/>
+    <col customWidth="1" min="1" max="26" width="7.88"/>
   </cols>
   <sheetData>
     <row r="21" ht="15.75" customHeight="1"/>
